--- a/lang/lv/headCategories.xlsx
+++ b/lang/lv/headCategories.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$12</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>en</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Pārtika un dzērieni</t>
+  </si>
+  <si>
+    <t>Helmets</t>
+  </si>
+  <si>
+    <t>Ķiveres</t>
   </si>
   <si>
     <t>Humanoid</t>
@@ -429,7 +435,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -530,8 +536,16 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B11"/>
+  <autoFilter ref="A1:B12"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
